--- a/data/trans_camb/POLIPATOLOGIA_Lim_2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_Lim_2-Estudios-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-11.63687699091779</v>
+        <v>-11.1220001329937</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.726277444604676</v>
+        <v>-6.986825913300351</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.690062489301579</v>
+        <v>-6.798224851272955</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.581491097662074</v>
+        <v>2.44439885124516</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-7.463680431026807</v>
+        <v>-7.493551105793321</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.531396131741376</v>
+        <v>-0.2586984286279183</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-2.289541324771726</v>
+        <v>-1.820349076251537</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.586922180165101</v>
+        <v>2.359846615339276</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.011975697803289</v>
+        <v>2.205196946333286</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.10497810759673</v>
+        <v>10.23439700537108</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-1.585721437264234</v>
+        <v>-1.295607444756253</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.944492150502547</v>
+        <v>6.219724967212393</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2993245719355185</v>
+        <v>-0.2878619611070891</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1922050131173586</v>
+        <v>-0.1803867561115948</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1286249609001653</v>
+        <v>-0.128539373832562</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.04858248289272257</v>
+        <v>0.04598517393005237</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1621574941613766</v>
+        <v>-0.1625196001188323</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.01164983291392887</v>
+        <v>-0.00495502025393845</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.06701970756616722</v>
+        <v>-0.05001588891072743</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.07739141946710075</v>
+        <v>0.06795224173737276</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.03929364242434853</v>
+        <v>0.04327031918256114</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2063492850315441</v>
+        <v>0.209783318637797</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.03691745747167557</v>
+        <v>-0.03050051094093706</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1348380245781782</v>
+        <v>0.1412383115150012</v>
       </c>
     </row>
     <row r="10">
@@ -778,7 +778,7 @@
         <v>1.462748228127969</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8.90717129531663</v>
+        <v>8.907171295316624</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>1.512633808243091</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.793989948465448</v>
+        <v>-0.6678799441148072</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.95799807602532</v>
+        <v>3.873021520988144</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.125707716801266</v>
+        <v>-1.239125195019245</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.488211887937305</v>
+        <v>6.183794637799169</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.1320802421314075</v>
+        <v>-0.05469629727401666</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>5.696029272959942</v>
+        <v>5.920808657314606</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.104731429031063</v>
+        <v>3.314327871078754</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.09936062657612</v>
+        <v>8.016760464431329</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.136755670525203</v>
+        <v>4.097839314154675</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.54301043620165</v>
+        <v>11.54684101817305</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.030327361070345</v>
+        <v>3.053739091410414</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>9.16000379531104</v>
+        <v>9.193985504932897</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         <v>0.08547420939207616</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.520481522210655</v>
+        <v>0.5204815222106547</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1146802484779494</v>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.07543161765388894</v>
+        <v>-0.06230877695705202</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.354882899459406</v>
+        <v>0.3581644651457399</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.0612680503508379</v>
+        <v>-0.06734711046738663</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.341492848431565</v>
+        <v>0.331335852222635</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.01025549405137766</v>
+        <v>-0.004665072464313206</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4078103796327378</v>
+        <v>0.4157928943482401</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3542331841592452</v>
+        <v>0.3762919503925997</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.9239813913060555</v>
+        <v>0.9132674824639945</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2629530652647432</v>
+        <v>0.2617500699791248</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.724976396577806</v>
+        <v>0.7449196143674066</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2439183598417087</v>
+        <v>0.2433537904194124</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7465675748665351</v>
+        <v>0.740674727751803</v>
       </c>
     </row>
     <row r="16">
@@ -932,7 +932,7 @@
         <v>2.51647838638908</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>6.235839553953869</v>
+        <v>6.235839553953866</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>-0.3185916729602681</v>
@@ -944,7 +944,7 @@
         <v>1.151942720904306</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>9.273526819810703</v>
+        <v>9.273526819810701</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.184173906316289</v>
+        <v>-1.371713987780609</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.721015037055641</v>
+        <v>2.475453167001191</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.171017546342381</v>
+        <v>-4.617435180278473</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.77635224595654</v>
+        <v>7.910890088417927</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.460299050306449</v>
+        <v>-1.588959035759302</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.595937478283136</v>
+        <v>6.145995152857648</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.20106070623706</v>
+        <v>5.815123766408056</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.618782507275153</v>
+        <v>9.855882306175378</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.8317534339626</v>
+        <v>3.851952506840485</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16.23782362842787</v>
+        <v>15.64541021490168</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.087582713167786</v>
+        <v>3.880793074855735</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>12.24063236184878</v>
+        <v>11.9605341145291</v>
       </c>
     </row>
     <row r="19">
@@ -1010,7 +1010,7 @@
         <v>0.3916734219004945</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.9705676908372766</v>
+        <v>0.9705676908372761</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>-0.02972595607037005</v>
@@ -1022,7 +1022,7 @@
         <v>0.1352079944395555</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1.088469886509396</v>
+        <v>1.088469886509395</v>
       </c>
     </row>
     <row r="20">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1577572376295727</v>
+        <v>-0.1775544596578275</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2728709440433569</v>
+        <v>0.2825296454247297</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3301840511108747</v>
+        <v>-0.3610504131392599</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.5508900874134315</v>
+        <v>0.5623073250934273</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1482312822017574</v>
+        <v>-0.1549929466507046</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6394292322232539</v>
+        <v>0.5953150391405623</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.290147275342367</v>
+        <v>1.162447098130116</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.055502548931756</v>
+        <v>2.097389835279656</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.4410634814361207</v>
+        <v>0.4631990104421175</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.960392748865912</v>
+        <v>1.905182775710376</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5781124892097176</v>
+        <v>0.538975209054094</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.779016974754068</v>
+        <v>1.730480386030913</v>
       </c>
     </row>
     <row r="22">
@@ -1104,7 +1104,7 @@
         <v>-2.685080502276141</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>2.275700235950728</v>
+        <v>2.275700235950734</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.941263088830036</v>
+        <v>-3.756733986560753</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.019663755909051</v>
+        <v>-0.6095723327237237</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.491027730693595</v>
+        <v>-5.673367376774902</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.236730756442241</v>
+        <v>1.196069344706032</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.124787200295133</v>
+        <v>-4.176448383787392</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.7800965482992352</v>
+        <v>0.7244960526809938</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.1898314505529952</v>
+        <v>-0.1410461414242259</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.246325013181103</v>
+        <v>3.184033804673007</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.192578781477433</v>
+        <v>-1.328219287650955</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.318350233819147</v>
+        <v>5.347371470602139</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-1.086377953488049</v>
+        <v>-1.338809061107669</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.58031700293779</v>
+        <v>3.554552664586982</v>
       </c>
     </row>
     <row r="25">
@@ -1182,7 +1182,7 @@
         <v>-0.1157109619614691</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09806911309161188</v>
+        <v>0.09806911309161212</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2175453473681126</v>
+        <v>-0.2123871537022418</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.05347442058007174</v>
+        <v>-0.03221832509901019</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1804472563959233</v>
+        <v>-0.1857609709119448</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.0404787300137367</v>
+        <v>0.03887839543780165</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1724499742137849</v>
+        <v>-0.1725205520408773</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03266586718598262</v>
+        <v>0.03030002659662146</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.01085856215123424</v>
+        <v>-0.009339933666591601</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1998434075142824</v>
+        <v>0.1998977105420201</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.04255066819724755</v>
+        <v>-0.04653321562180774</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1885939527317788</v>
+        <v>0.1900998873925112</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.04819357557813872</v>
+        <v>-0.05882267027440603</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1584815764303591</v>
+        <v>0.1601145380798859</v>
       </c>
     </row>
     <row r="28">
